--- a/Chapter2/2-3/Food_02.xlsx
+++ b/Chapter2/2-3/Food_02.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MEGAsync\ODK画像差し替え\Github公開用ファイル\2-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MEGA\ODK画像差し替え\Github公開用ファイル\Chapter 2\2-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -527,11 +527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -636,10 +636,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
